--- a/biology/Botanique/Cercideae/Cercideae.xlsx
+++ b/biology/Botanique/Cercideae/Cercideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cercideae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire principalement des régions tropicales et tempérées chaudes, qui comprend une douzaine de genres et environ 330 espèces. Les Cercideae constituent la lignée basale des Fabaceae (c'est-à-dire le groupe-frère du reste de la famille).  Cette tribu est subdivisée en deux sous-tribus, les Cercidinae, qui comprend notamment le genre Cercis, les Bauhiniinae, avec le genre Bauhinia sensu lato, genre à répartition pantropicale d'environ 150 espèces.
-Dans la nouvelle classification phylogénique des Fabaceae proposée en 2017 par le Legume Phylogeny Working Group (LPWG), les Cercideae sont élevées au rang de sous-famille sous le nom de Cercidoideae[2].
+Dans la nouvelle classification phylogénique des Fabaceae proposée en 2017 par le Legume Phylogeny Working Group (LPWG), les Cercideae sont élevées au rang de sous-famille sous le nom de Cercidoideae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres par sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 août 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 août 2018) :
 sous-tribu des Bauhiniinae
 Barklya F.Muell., 1859
 Bauhinia L., 1753
